--- a/www.eia.gov/electricity/monthly/xls/table_2_12_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_12_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Table 2.12.B. Consumption of Landfill Gas for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>Year-to-Date through October 2016 and October 2015 (Million Cubic Feet)</t>
+    <t>Year-to-Date through November 2016 and November 2015 (Million Cubic Feet)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,13 +1356,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>10680</v>
+        <v>11680</v>
       </c>
       <c r="C6" s="13">
-        <v>9574</v>
+        <v>10508</v>
       </c>
       <c r="D6" s="14">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="G6" s="13">
-        <v>10002</v>
+        <v>10934</v>
       </c>
       <c r="H6" s="13">
-        <v>9119</v>
+        <v>10006</v>
       </c>
       <c r="I6" s="13">
-        <v>678</v>
+        <v>746</v>
       </c>
       <c r="J6" s="13">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="K6" s="13">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="C7" s="16">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="D7" s="17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="H7" s="16">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>792</v>
+        <v>867</v>
       </c>
       <c r="C8" s="16">
-        <v>699</v>
+        <v>773</v>
       </c>
       <c r="D8" s="17">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>792</v>
+        <v>867</v>
       </c>
       <c r="H8" s="16">
-        <v>699</v>
+        <v>773</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
@@ -1470,13 +1470,13 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>3754</v>
+        <v>4113</v>
       </c>
       <c r="C9" s="16">
-        <v>3157</v>
+        <v>3477</v>
       </c>
       <c r="D9" s="17">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E9" s="16">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="16">
-        <v>3754</v>
+        <v>4113</v>
       </c>
       <c r="H9" s="16">
-        <v>3157</v>
+        <v>3477</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>1765</v>
+        <v>1937</v>
       </c>
       <c r="C10" s="16">
-        <v>1354</v>
+        <v>1493</v>
       </c>
       <c r="D10" s="17">
         <v>0.3</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="G10" s="16">
-        <v>1087</v>
+        <v>1190</v>
       </c>
       <c r="H10" s="16">
-        <v>899</v>
+        <v>992</v>
       </c>
       <c r="I10" s="16">
-        <v>678</v>
+        <v>746</v>
       </c>
       <c r="J10" s="16">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="K10" s="16">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="16">
-        <v>3474</v>
+        <v>3783</v>
       </c>
       <c r="C11" s="16">
-        <v>3516</v>
+        <v>3827</v>
       </c>
       <c r="D11" s="17">
-        <v>-1.2E-2</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>3474</v>
+        <v>3783</v>
       </c>
       <c r="H11" s="16">
-        <v>3516</v>
+        <v>3827</v>
       </c>
       <c r="I11" s="16">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="16">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="C12" s="16">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="D12" s="17">
-        <v>-6.0000000000000001E-3</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="16">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="H12" s="16">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="13">
-        <v>51514</v>
+        <v>56582</v>
       </c>
       <c r="C13" s="13">
-        <v>45619</v>
+        <v>50424</v>
       </c>
       <c r="D13" s="14">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1637,22 +1637,22 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>49170</v>
+        <v>53998</v>
       </c>
       <c r="H13" s="13">
-        <v>43572</v>
+        <v>48160</v>
       </c>
       <c r="I13" s="13">
-        <v>956</v>
+        <v>1058</v>
       </c>
       <c r="J13" s="13">
-        <v>677</v>
+        <v>749</v>
       </c>
       <c r="K13" s="13">
-        <v>1388</v>
+        <v>1526</v>
       </c>
       <c r="L13" s="13">
-        <v>1370</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,13 +1660,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="16">
-        <v>8743</v>
+        <v>9575</v>
       </c>
       <c r="C14" s="16">
-        <v>7493</v>
+        <v>8250</v>
       </c>
       <c r="D14" s="17">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
@@ -1675,16 +1675,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="16">
-        <v>8382</v>
+        <v>9176</v>
       </c>
       <c r="H14" s="16">
-        <v>7245</v>
+        <v>7976</v>
       </c>
       <c r="I14" s="16">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="J14" s="16">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="K14" s="16">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="16">
-        <v>15689</v>
+        <v>17187</v>
       </c>
       <c r="C15" s="16">
-        <v>13261</v>
+        <v>14650</v>
       </c>
       <c r="D15" s="17">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>15689</v>
+        <v>17187</v>
       </c>
       <c r="H15" s="16">
-        <v>13261</v>
+        <v>14650</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="16">
-        <v>27082</v>
+        <v>29819</v>
       </c>
       <c r="C16" s="16">
-        <v>24864</v>
+        <v>27524</v>
       </c>
       <c r="D16" s="17">
-        <v>8.8999999999999996E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1751,22 +1751,22 @@
         <v>0</v>
       </c>
       <c r="G16" s="16">
-        <v>25100</v>
+        <v>27635</v>
       </c>
       <c r="H16" s="16">
-        <v>23065</v>
+        <v>25534</v>
       </c>
       <c r="I16" s="16">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="J16" s="16">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="K16" s="16">
-        <v>1388</v>
+        <v>1526</v>
       </c>
       <c r="L16" s="16">
-        <v>1370</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,37 +1774,37 @@
         <v>24</v>
       </c>
       <c r="B17" s="13">
-        <v>66377</v>
+        <v>72736</v>
       </c>
       <c r="C17" s="13">
-        <v>53832</v>
+        <v>59088</v>
       </c>
       <c r="D17" s="14">
         <v>0.23</v>
       </c>
       <c r="E17" s="13">
-        <v>7859</v>
+        <v>8610</v>
       </c>
       <c r="F17" s="13">
-        <v>5952</v>
+        <v>6546</v>
       </c>
       <c r="G17" s="13">
-        <v>57615</v>
+        <v>63145</v>
       </c>
       <c r="H17" s="13">
-        <v>47030</v>
+        <v>51616</v>
       </c>
       <c r="I17" s="13">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="J17" s="13">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K17" s="13">
-        <v>672</v>
+        <v>732</v>
       </c>
       <c r="L17" s="13">
-        <v>659</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,25 +1812,25 @@
         <v>25</v>
       </c>
       <c r="B18" s="16">
-        <v>14104</v>
+        <v>15451</v>
       </c>
       <c r="C18" s="16">
-        <v>11092</v>
+        <v>12373</v>
       </c>
       <c r="D18" s="17">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="16">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="F18" s="16">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="G18" s="16">
-        <v>13689</v>
+        <v>14997</v>
       </c>
       <c r="H18" s="16">
-        <v>10790</v>
+        <v>12036</v>
       </c>
       <c r="I18" s="16">
         <v>0</v>
@@ -1850,25 +1850,25 @@
         <v>26</v>
       </c>
       <c r="B19" s="16">
-        <v>8615</v>
+        <v>9436</v>
       </c>
       <c r="C19" s="16">
-        <v>6609</v>
+        <v>7265</v>
       </c>
       <c r="D19" s="17">
         <v>0.3</v>
       </c>
       <c r="E19" s="16">
-        <v>7239</v>
+        <v>7932</v>
       </c>
       <c r="F19" s="16">
-        <v>5479</v>
+        <v>6022</v>
       </c>
       <c r="G19" s="16">
-        <v>1099</v>
+        <v>1204</v>
       </c>
       <c r="H19" s="16">
-        <v>897</v>
+        <v>986</v>
       </c>
       <c r="I19" s="16">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="K19" s="16">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="L19" s="16">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="16">
-        <v>20152</v>
+        <v>22078</v>
       </c>
       <c r="C20" s="16">
-        <v>16713</v>
+        <v>18224</v>
       </c>
       <c r="D20" s="17">
         <v>0.21</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <v>20152</v>
+        <v>22078</v>
       </c>
       <c r="H20" s="16">
-        <v>16713</v>
+        <v>18224</v>
       </c>
       <c r="I20" s="16">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="16">
-        <v>11430</v>
+        <v>12527</v>
       </c>
       <c r="C21" s="16">
-        <v>9424</v>
+        <v>10359</v>
       </c>
       <c r="D21" s="17">
         <v>0.21</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="16">
-        <v>11430</v>
+        <v>12527</v>
       </c>
       <c r="H21" s="16">
-        <v>9424</v>
+        <v>10359</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1964,37 +1964,37 @@
         <v>29</v>
       </c>
       <c r="B22" s="16">
-        <v>12076</v>
+        <v>13244</v>
       </c>
       <c r="C22" s="16">
-        <v>9994</v>
+        <v>10868</v>
       </c>
       <c r="D22" s="17">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E22" s="16">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="F22" s="16">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G22" s="16">
-        <v>11245</v>
+        <v>12339</v>
       </c>
       <c r="H22" s="16">
-        <v>9206</v>
+        <v>10011</v>
       </c>
       <c r="I22" s="16">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="J22" s="16">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K22" s="16">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="L22" s="16">
-        <v>425</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,25 +2002,25 @@
         <v>30</v>
       </c>
       <c r="B23" s="13">
-        <v>11682</v>
+        <v>12768</v>
       </c>
       <c r="C23" s="13">
-        <v>8974</v>
+        <v>9939</v>
       </c>
       <c r="D23" s="14">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E23" s="13">
-        <v>3376</v>
+        <v>3664</v>
       </c>
       <c r="F23" s="13">
-        <v>2405</v>
+        <v>2692</v>
       </c>
       <c r="G23" s="13">
-        <v>8306</v>
+        <v>9105</v>
       </c>
       <c r="H23" s="13">
-        <v>6569</v>
+        <v>7247</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="16">
-        <v>2824</v>
+        <v>3097</v>
       </c>
       <c r="C24" s="16">
-        <v>2245</v>
+        <v>2460</v>
       </c>
       <c r="D24" s="17">
         <v>0.26</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="16">
-        <v>2824</v>
+        <v>3097</v>
       </c>
       <c r="H24" s="16">
-        <v>2245</v>
+        <v>2460</v>
       </c>
       <c r="I24" s="16">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="16">
-        <v>1483</v>
+        <v>1626</v>
       </c>
       <c r="C25" s="16">
-        <v>1127</v>
+        <v>1258</v>
       </c>
       <c r="D25" s="17">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E25" s="16">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="16">
-        <v>1483</v>
+        <v>1626</v>
       </c>
       <c r="H25" s="16">
-        <v>1127</v>
+        <v>1258</v>
       </c>
       <c r="I25" s="16">
         <v>0</v>
@@ -2116,25 +2116,25 @@
         <v>33</v>
       </c>
       <c r="B26" s="16">
-        <v>3708</v>
+        <v>4059</v>
       </c>
       <c r="C26" s="16">
-        <v>2869</v>
+        <v>3212</v>
       </c>
       <c r="D26" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="E26" s="16">
-        <v>855</v>
+        <v>932</v>
       </c>
       <c r="F26" s="16">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="G26" s="16">
-        <v>2853</v>
+        <v>3127</v>
       </c>
       <c r="H26" s="16">
-        <v>2270</v>
+        <v>2544</v>
       </c>
       <c r="I26" s="16">
         <v>0</v>
@@ -2154,25 +2154,25 @@
         <v>34</v>
       </c>
       <c r="B27" s="16">
-        <v>2121</v>
+        <v>2316</v>
       </c>
       <c r="C27" s="16">
-        <v>1708</v>
+        <v>1815</v>
       </c>
       <c r="D27" s="17">
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E27" s="16">
-        <v>975</v>
+        <v>1060</v>
       </c>
       <c r="F27" s="16">
-        <v>780</v>
+        <v>829</v>
       </c>
       <c r="G27" s="16">
-        <v>1146</v>
+        <v>1255</v>
       </c>
       <c r="H27" s="16">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="I27" s="16">
         <v>0</v>
@@ -2192,19 +2192,19 @@
         <v>35</v>
       </c>
       <c r="B28" s="16">
-        <v>1546</v>
+        <v>1671</v>
       </c>
       <c r="C28" s="16">
-        <v>1026</v>
+        <v>1194</v>
       </c>
       <c r="D28" s="17">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="E28" s="16">
-        <v>1546</v>
+        <v>1671</v>
       </c>
       <c r="F28" s="16">
-        <v>1026</v>
+        <v>1194</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2306,37 +2306,37 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>46801</v>
+        <v>51326</v>
       </c>
       <c r="C31" s="13">
-        <v>37520</v>
+        <v>42633</v>
       </c>
       <c r="D31" s="14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E31" s="13">
-        <v>4773</v>
+        <v>5237</v>
       </c>
       <c r="F31" s="13">
-        <v>4572</v>
+        <v>5038</v>
       </c>
       <c r="G31" s="13">
-        <v>37326</v>
+        <v>40898</v>
       </c>
       <c r="H31" s="13">
-        <v>29534</v>
+        <v>33714</v>
       </c>
       <c r="I31" s="13">
-        <v>2409</v>
+        <v>2659</v>
       </c>
       <c r="J31" s="13">
-        <v>1646</v>
+        <v>1911</v>
       </c>
       <c r="K31" s="13">
-        <v>2293</v>
+        <v>2531</v>
       </c>
       <c r="L31" s="13">
-        <v>1768</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,13 +2344,13 @@
         <v>40</v>
       </c>
       <c r="B32" s="16">
-        <v>1569</v>
+        <v>1721</v>
       </c>
       <c r="C32" s="16">
-        <v>1293</v>
+        <v>1439</v>
       </c>
       <c r="D32" s="17">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E32" s="16">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="16">
-        <v>1381</v>
+        <v>1513</v>
       </c>
       <c r="H32" s="16">
-        <v>1164</v>
+        <v>1295</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="16">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L32" s="16">
-        <v>130</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2420,37 +2420,37 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>6203</v>
+        <v>6816</v>
       </c>
       <c r="C34" s="16">
-        <v>7231</v>
+        <v>7985</v>
       </c>
       <c r="D34" s="17">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="E34" s="16">
-        <v>1424</v>
+        <v>1574</v>
       </c>
       <c r="F34" s="16">
-        <v>1757</v>
+        <v>1906</v>
       </c>
       <c r="G34" s="16">
-        <v>4746</v>
+        <v>5205</v>
       </c>
       <c r="H34" s="16">
-        <v>5443</v>
+        <v>6044</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="J34" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>43</v>
       </c>
       <c r="L34" s="16">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>4460</v>
+        <v>4893</v>
       </c>
       <c r="C35" s="16">
-        <v>3512</v>
+        <v>3927</v>
       </c>
       <c r="D35" s="17">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="E35" s="16">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="16">
-        <v>3973</v>
+        <v>4355</v>
       </c>
       <c r="H35" s="16">
-        <v>3076</v>
+        <v>3448</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>77</v>
       </c>
       <c r="K35" s="16">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="L35" s="16">
-        <v>359</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="B36" s="16">
-        <v>2348</v>
+        <v>2575</v>
       </c>
       <c r="C36" s="16">
-        <v>1995</v>
+        <v>2200</v>
       </c>
       <c r="D36" s="17">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>1639</v>
+        <v>1793</v>
       </c>
       <c r="H36" s="16">
-        <v>1366</v>
+        <v>1506</v>
       </c>
       <c r="I36" s="16">
-        <v>709</v>
+        <v>782</v>
       </c>
       <c r="J36" s="16">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="K36" s="16">
         <v>0</v>
@@ -2534,13 +2534,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="16">
-        <v>11424</v>
+        <v>12532</v>
       </c>
       <c r="C37" s="16">
-        <v>7217</v>
+        <v>8979</v>
       </c>
       <c r="D37" s="17">
-        <v>0.57999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="E37" s="16">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="16">
-        <v>10017</v>
+        <v>10978</v>
       </c>
       <c r="H37" s="16">
-        <v>6499</v>
+        <v>8086</v>
       </c>
       <c r="I37" s="16">
-        <v>1408</v>
+        <v>1555</v>
       </c>
       <c r="J37" s="16">
-        <v>718</v>
+        <v>893</v>
       </c>
       <c r="K37" s="16">
         <v>0</v>
@@ -2572,25 +2572,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="16">
-        <v>5238</v>
+        <v>5745</v>
       </c>
       <c r="C38" s="16">
-        <v>4292</v>
+        <v>4774</v>
       </c>
       <c r="D38" s="17">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E38" s="16">
-        <v>3270</v>
+        <v>3578</v>
       </c>
       <c r="F38" s="16">
-        <v>2755</v>
+        <v>3065</v>
       </c>
       <c r="G38" s="16">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="H38" s="16">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="I38" s="16">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>1594</v>
+        <v>1758</v>
       </c>
       <c r="L38" s="16">
-        <v>1254</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,31 +2610,31 @@
         <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>15417</v>
+        <v>16888</v>
       </c>
       <c r="C39" s="16">
-        <v>11858</v>
+        <v>13194</v>
       </c>
       <c r="D39" s="17">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="16">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G39" s="16">
-        <v>15055</v>
+        <v>16490</v>
       </c>
       <c r="H39" s="16">
-        <v>11583</v>
+        <v>12886</v>
       </c>
       <c r="I39" s="16">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="J39" s="16">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="K39" s="16">
         <v>0</v>
@@ -2647,14 +2647,14 @@
       <c r="A40" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>43</v>
+      <c r="B40" s="16">
+        <v>156</v>
       </c>
       <c r="C40" s="16">
-        <v>121</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>43</v>
+        <v>136</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0.15</v>
       </c>
       <c r="E40" s="16">
         <v>0</v>
@@ -2662,11 +2662,11 @@
       <c r="F40" s="16">
         <v>0</v>
       </c>
-      <c r="G40" s="16" t="s">
-        <v>43</v>
+      <c r="G40" s="16">
+        <v>156</v>
       </c>
       <c r="H40" s="16">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2686,25 +2686,25 @@
         <v>50</v>
       </c>
       <c r="B41" s="13">
-        <v>5239</v>
+        <v>5740</v>
       </c>
       <c r="C41" s="13">
-        <v>4158</v>
+        <v>4709</v>
       </c>
       <c r="D41" s="14">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="E41" s="13">
-        <v>2068</v>
+        <v>2265</v>
       </c>
       <c r="F41" s="13">
-        <v>1680</v>
+        <v>1899</v>
       </c>
       <c r="G41" s="13">
-        <v>3172</v>
+        <v>3475</v>
       </c>
       <c r="H41" s="13">
-        <v>2478</v>
+        <v>2810</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="B42" s="16">
-        <v>1033</v>
+        <v>1133</v>
       </c>
       <c r="C42" s="16">
-        <v>847</v>
+        <v>958</v>
       </c>
       <c r="D42" s="17">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="E42" s="16">
         <v>0</v>
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="16">
-        <v>1033</v>
+        <v>1133</v>
       </c>
       <c r="H42" s="16">
-        <v>847</v>
+        <v>958</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2762,25 +2762,25 @@
         <v>52</v>
       </c>
       <c r="B43" s="16">
-        <v>2229</v>
+        <v>2442</v>
       </c>
       <c r="C43" s="16">
-        <v>1806</v>
+        <v>2042</v>
       </c>
       <c r="D43" s="17">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E43" s="16">
-        <v>2068</v>
+        <v>2265</v>
       </c>
       <c r="F43" s="16">
-        <v>1680</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>43</v>
+        <v>1899</v>
+      </c>
+      <c r="G43" s="16">
+        <v>177</v>
       </c>
       <c r="H43" s="16">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I43" s="16">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>53</v>
       </c>
       <c r="B44" s="16">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C44" s="16">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D44" s="17">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="E44" s="16">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="16">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="H44" s="16">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="I44" s="16">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>54</v>
       </c>
       <c r="B45" s="16">
-        <v>1724</v>
+        <v>1889</v>
       </c>
       <c r="C45" s="16">
-        <v>1339</v>
+        <v>1499</v>
       </c>
       <c r="D45" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="E45" s="16">
         <v>0</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="16">
-        <v>1724</v>
+        <v>1889</v>
       </c>
       <c r="H45" s="16">
-        <v>1339</v>
+        <v>1499</v>
       </c>
       <c r="I45" s="16">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>55</v>
       </c>
       <c r="B46" s="13">
-        <v>18008</v>
+        <v>19742</v>
       </c>
       <c r="C46" s="13">
-        <v>14031</v>
+        <v>15555</v>
       </c>
       <c r="D46" s="14">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
@@ -2891,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="G46" s="13">
-        <v>17286</v>
+        <v>18945</v>
       </c>
       <c r="H46" s="13">
-        <v>13508</v>
+        <v>14975</v>
       </c>
       <c r="I46" s="13">
-        <v>722</v>
+        <v>797</v>
       </c>
       <c r="J46" s="13">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="K46" s="13">
         <v>0</v>
@@ -2914,13 +2914,13 @@
         <v>56</v>
       </c>
       <c r="B47" s="16">
-        <v>1694</v>
+        <v>1858</v>
       </c>
       <c r="C47" s="16">
-        <v>1307</v>
+        <v>1436</v>
       </c>
       <c r="D47" s="17">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E47" s="16">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="16">
-        <v>1694</v>
+        <v>1858</v>
       </c>
       <c r="H47" s="16">
-        <v>1307</v>
+        <v>1436</v>
       </c>
       <c r="I47" s="16">
         <v>0</v>
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="B49" s="16">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C49" s="16">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="D49" s="17">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="E49" s="16">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="16">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="H49" s="16">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="I49" s="16">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         <v>59</v>
       </c>
       <c r="B50" s="16">
-        <v>15994</v>
+        <v>17535</v>
       </c>
       <c r="C50" s="16">
-        <v>12481</v>
+        <v>13850</v>
       </c>
       <c r="D50" s="17">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="E50" s="16">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G50" s="16">
-        <v>15272</v>
+        <v>16738</v>
       </c>
       <c r="H50" s="16">
-        <v>11958</v>
+        <v>13270</v>
       </c>
       <c r="I50" s="16">
-        <v>722</v>
+        <v>797</v>
       </c>
       <c r="J50" s="16">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="K50" s="16">
         <v>0</v>
@@ -3066,31 +3066,31 @@
         <v>60</v>
       </c>
       <c r="B51" s="13">
-        <v>5323</v>
+        <v>5839</v>
       </c>
       <c r="C51" s="13">
-        <v>4815</v>
+        <v>5291</v>
       </c>
       <c r="D51" s="14">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E51" s="13">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F51" s="13">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="G51" s="13">
-        <v>4489</v>
+        <v>4922</v>
       </c>
       <c r="H51" s="13">
-        <v>3876</v>
+        <v>4283</v>
       </c>
       <c r="I51" s="13">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="J51" s="13">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="K51" s="13">
         <v>0</v>
@@ -3104,13 +3104,13 @@
         <v>61</v>
       </c>
       <c r="B52" s="16">
-        <v>985</v>
+        <v>1080</v>
       </c>
       <c r="C52" s="16">
-        <v>1104</v>
+        <v>1190</v>
       </c>
       <c r="D52" s="17">
-        <v>-0.11</v>
+        <v>-9.2999999999999999E-2</v>
       </c>
       <c r="E52" s="16">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>281</v>
       </c>
       <c r="G52" s="16">
-        <v>985</v>
+        <v>1080</v>
       </c>
       <c r="H52" s="16">
-        <v>823</v>
+        <v>909</v>
       </c>
       <c r="I52" s="16">
         <v>0</v>
@@ -3142,13 +3142,13 @@
         <v>62</v>
       </c>
       <c r="B53" s="16">
-        <v>1102</v>
+        <v>1208</v>
       </c>
       <c r="C53" s="16">
-        <v>1050</v>
+        <v>1160</v>
       </c>
       <c r="D53" s="17">
-        <v>0.05</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E53" s="16">
         <v>0</v>
@@ -3157,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="16">
-        <v>1102</v>
+        <v>1208</v>
       </c>
       <c r="H53" s="16">
-        <v>1050</v>
+        <v>1160</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3180,31 +3180,31 @@
         <v>63</v>
       </c>
       <c r="B54" s="16">
-        <v>943</v>
+        <v>1035</v>
       </c>
       <c r="C54" s="16">
-        <v>819</v>
+        <v>905</v>
       </c>
       <c r="D54" s="17">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E54" s="16">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F54" s="16">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G54" s="16">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="H54" s="16">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="I54" s="16">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="J54" s="16">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K54" s="16">
         <v>0</v>
@@ -3256,13 +3256,13 @@
         <v>65</v>
       </c>
       <c r="B56" s="16">
-        <v>565</v>
+        <v>620</v>
       </c>
       <c r="C56" s="16">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="D56" s="17">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E56" s="16">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="16">
-        <v>565</v>
+        <v>620</v>
       </c>
       <c r="H56" s="16">
-        <v>448</v>
+        <v>495</v>
       </c>
       <c r="I56" s="16">
         <v>0</v>
@@ -3332,13 +3332,13 @@
         <v>67</v>
       </c>
       <c r="B58" s="16">
-        <v>1728</v>
+        <v>1897</v>
       </c>
       <c r="C58" s="16">
-        <v>1394</v>
+        <v>1540</v>
       </c>
       <c r="D58" s="17">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E58" s="16">
         <v>0</v>
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="16">
-        <v>1383</v>
+        <v>1517</v>
       </c>
       <c r="H58" s="16">
-        <v>1103</v>
+        <v>1219</v>
       </c>
       <c r="I58" s="16">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="J58" s="16">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="K58" s="16">
         <v>0</v>
@@ -3408,31 +3408,31 @@
         <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>58061</v>
+        <v>63621</v>
       </c>
       <c r="C60" s="13">
-        <v>52958</v>
+        <v>57848</v>
       </c>
       <c r="D60" s="14">
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E60" s="13">
-        <v>7201</v>
+        <v>7890</v>
       </c>
       <c r="F60" s="13">
-        <v>5848</v>
+        <v>6382</v>
       </c>
       <c r="G60" s="13">
-        <v>36567</v>
+        <v>40049</v>
       </c>
       <c r="H60" s="13">
-        <v>30841</v>
+        <v>33768</v>
       </c>
       <c r="I60" s="13">
-        <v>14292</v>
+        <v>15683</v>
       </c>
       <c r="J60" s="13">
-        <v>16269</v>
+        <v>17698</v>
       </c>
       <c r="K60" s="13">
         <v>0</v>
@@ -3446,31 +3446,31 @@
         <v>70</v>
       </c>
       <c r="B61" s="16">
-        <v>47673</v>
+        <v>52231</v>
       </c>
       <c r="C61" s="16">
-        <v>44773</v>
+        <v>48864</v>
       </c>
       <c r="D61" s="17">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E61" s="16">
-        <v>2401</v>
+        <v>2627</v>
       </c>
       <c r="F61" s="16">
-        <v>2187</v>
+        <v>2368</v>
       </c>
       <c r="G61" s="16">
-        <v>31442</v>
+        <v>34432</v>
       </c>
       <c r="H61" s="16">
-        <v>26699</v>
+        <v>29218</v>
       </c>
       <c r="I61" s="16">
-        <v>13830</v>
+        <v>15172</v>
       </c>
       <c r="J61" s="16">
-        <v>15887</v>
+        <v>17277</v>
       </c>
       <c r="K61" s="16">
         <v>0</v>
@@ -3484,31 +3484,31 @@
         <v>71</v>
       </c>
       <c r="B62" s="16">
-        <v>5701</v>
+        <v>6252</v>
       </c>
       <c r="C62" s="16">
-        <v>4704</v>
+        <v>5186</v>
       </c>
       <c r="D62" s="17">
         <v>0.21</v>
       </c>
       <c r="E62" s="16">
-        <v>1356</v>
+        <v>1486</v>
       </c>
       <c r="F62" s="16">
-        <v>1262</v>
+        <v>1391</v>
       </c>
       <c r="G62" s="16">
-        <v>3882</v>
+        <v>4256</v>
       </c>
       <c r="H62" s="16">
-        <v>3060</v>
+        <v>3374</v>
       </c>
       <c r="I62" s="16">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="J62" s="16">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="K62" s="16">
         <v>0</v>
@@ -3522,25 +3522,25 @@
         <v>72</v>
       </c>
       <c r="B63" s="16">
-        <v>4687</v>
+        <v>5138</v>
       </c>
       <c r="C63" s="16">
-        <v>3481</v>
+        <v>3799</v>
       </c>
       <c r="D63" s="17">
         <v>0.35</v>
       </c>
       <c r="E63" s="16">
-        <v>3445</v>
+        <v>3777</v>
       </c>
       <c r="F63" s="16">
-        <v>2399</v>
+        <v>2623</v>
       </c>
       <c r="G63" s="16">
-        <v>1242</v>
+        <v>1361</v>
       </c>
       <c r="H63" s="16">
-        <v>1082</v>
+        <v>1176</v>
       </c>
       <c r="I63" s="16">
         <v>0</v>
@@ -3560,13 +3560,13 @@
         <v>73</v>
       </c>
       <c r="B64" s="13">
-        <v>1251</v>
+        <v>1381</v>
       </c>
       <c r="C64" s="13">
-        <v>926</v>
+        <v>1014</v>
       </c>
       <c r="D64" s="14">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="13">
-        <v>1251</v>
+        <v>1381</v>
       </c>
       <c r="J64" s="13">
-        <v>926</v>
+        <v>1014</v>
       </c>
       <c r="K64" s="13">
         <v>0</v>
@@ -3598,13 +3598,13 @@
         <v>74</v>
       </c>
       <c r="B65" s="16">
-        <v>1251</v>
+        <v>1381</v>
       </c>
       <c r="C65" s="16">
-        <v>926</v>
+        <v>1014</v>
       </c>
       <c r="D65" s="17">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E65" s="16">
         <v>0</v>
@@ -3619,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="I65" s="16">
-        <v>1251</v>
+        <v>1381</v>
       </c>
       <c r="J65" s="16">
-        <v>926</v>
+        <v>1014</v>
       </c>
       <c r="K65" s="16">
         <v>0</v>
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>274937</v>
+        <v>301417</v>
       </c>
       <c r="C67" s="13">
-        <v>232407</v>
+        <v>257009</v>
       </c>
       <c r="D67" s="14">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E67" s="13">
-        <v>25568</v>
+        <v>27984</v>
       </c>
       <c r="F67" s="13">
-        <v>20969</v>
+        <v>23092</v>
       </c>
       <c r="G67" s="13">
-        <v>223934</v>
+        <v>245471</v>
       </c>
       <c r="H67" s="13">
-        <v>186526</v>
+        <v>206578</v>
       </c>
       <c r="I67" s="13">
-        <v>21081</v>
+        <v>23173</v>
       </c>
       <c r="J67" s="13">
-        <v>21115</v>
+        <v>23135</v>
       </c>
       <c r="K67" s="13">
-        <v>4354</v>
+        <v>4789</v>
       </c>
       <c r="L67" s="13">
-        <v>3796</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
